--- a/data/trans_orig/P2A_lim_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_lim_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC653C83-02DD-41CD-A339-5CD03EC6672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{977B6E06-01AD-4912-94A6-79A4D282FA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EFEA3DC3-B8EB-48E4-A22E-B42A1CC8A288}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0B5A28A2-8C89-4A38-B864-3CB253906335}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="363">
-  <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="367">
+  <si>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -98,7 +98,7 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>11,08%</t>
@@ -128,7 +128,7 @@
     <t>13,19%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>88,57%</t>
@@ -383,7 +383,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2012 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2012 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,1%</t>
@@ -629,7 +629,7 @@
     <t>90,2%</t>
   </si>
   <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2016 (Tasa respuesta: 100,0%)</t>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>0,73%</t>
@@ -878,256 +878,268 @@
     <t>91,05%</t>
   </si>
   <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>71,72%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
   </si>
   <si>
     <t>15,85%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>62,13%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{363D87D2-CFE5-4436-83B8-45E4C8CC9F55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6D6120-A7C9-42E8-B16A-D2B5C4CC1625}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1792,7 +1804,7 @@
         <v>2054</v>
       </c>
       <c r="N6" s="7">
-        <v>2068024</v>
+        <v>2068023</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1843,7 +1855,7 @@
         <v>2329</v>
       </c>
       <c r="N7" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -1968,7 +1980,7 @@
         <v>1565</v>
       </c>
       <c r="D10" s="7">
-        <v>1606692</v>
+        <v>1606693</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>56</v>
@@ -2019,7 +2031,7 @@
         <v>1649</v>
       </c>
       <c r="D11" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -2380,7 +2392,7 @@
         <v>2990</v>
       </c>
       <c r="D18" s="7">
-        <v>3049608</v>
+        <v>3049607</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>104</v>
@@ -2395,7 +2407,7 @@
         <v>3035</v>
       </c>
       <c r="I18" s="7">
-        <v>3103492</v>
+        <v>3103491</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>107</v>
@@ -2410,7 +2422,7 @@
         <v>6025</v>
       </c>
       <c r="N18" s="7">
-        <v>6153098</v>
+        <v>6153099</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>110</v>
@@ -2431,7 +2443,7 @@
         <v>3214</v>
       </c>
       <c r="D19" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -2446,7 +2458,7 @@
         <v>3297</v>
       </c>
       <c r="I19" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -2461,7 +2473,7 @@
         <v>6511</v>
       </c>
       <c r="N19" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -2494,7 +2506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1BE3D1-1459-41D1-9F36-A7C6E9F78ED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E84C1F96-4710-416C-A327-7B72D75AAAF1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2732,7 +2744,7 @@
         <v>1051</v>
       </c>
       <c r="I6" s="7">
-        <v>1125832</v>
+        <v>1125833</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>132</v>
@@ -2783,7 +2795,7 @@
         <v>1247</v>
       </c>
       <c r="I7" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -3159,7 +3171,7 @@
         <v>799</v>
       </c>
       <c r="N14" s="7">
-        <v>879657</v>
+        <v>879658</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>174</v>
@@ -3210,7 +3222,7 @@
         <v>850</v>
       </c>
       <c r="N15" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -3449,7 +3461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57337AEB-017A-41B3-92F1-F8C7EA58A175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C86A757-2E57-4ADE-9725-899CEC955478}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4114,7 +4126,7 @@
         <v>976</v>
       </c>
       <c r="N14" s="7">
-        <v>1041704</v>
+        <v>1041705</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>257</v>
@@ -4165,7 +4177,7 @@
         <v>1027</v>
       </c>
       <c r="N15" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -4404,7 +4416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94DA706-EF6F-4FB1-ACEA-B10E87E1DEBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43FA001-2D17-484C-9C10-C936431BE981}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4525,10 +4537,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
@@ -4555,16 +4567,16 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,46 +4588,46 @@
         <v>182</v>
       </c>
       <c r="D5" s="7">
-        <v>138355</v>
+        <v>130760</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>397</v>
       </c>
       <c r="I5" s="7">
-        <v>224508</v>
+        <v>202486</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>579</v>
       </c>
       <c r="N5" s="7">
-        <v>362863</v>
+        <v>333246</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,46 +4639,46 @@
         <v>508</v>
       </c>
       <c r="D6" s="7">
-        <v>401876</v>
+        <v>382778</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H6" s="7">
         <v>1030</v>
       </c>
       <c r="I6" s="7">
-        <v>611445</v>
+        <v>553022</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M6" s="7">
         <v>1538</v>
       </c>
       <c r="N6" s="7">
-        <v>1013320</v>
+        <v>935799</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,7 +4690,7 @@
         <v>691</v>
       </c>
       <c r="D7" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -4693,7 +4705,7 @@
         <v>1427</v>
       </c>
       <c r="I7" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -4708,7 +4720,7 @@
         <v>2118</v>
       </c>
       <c r="N7" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -4731,13 +4743,13 @@
         <v>14</v>
       </c>
       <c r="D8" s="7">
-        <v>15225</v>
+        <v>14438</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>70</v>
+        <v>299</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>300</v>
@@ -4746,31 +4758,31 @@
         <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>11835</v>
+        <v>10845</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>18</v>
+        <v>242</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>38</v>
       </c>
       <c r="N8" s="7">
-        <v>27060</v>
+        <v>25283</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,46 +4794,46 @@
         <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>262242</v>
+        <v>252047</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H9" s="7">
         <v>362</v>
       </c>
       <c r="I9" s="7">
-        <v>356657</v>
+        <v>431321</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M9" s="7">
         <v>631</v>
       </c>
       <c r="N9" s="7">
-        <v>618899</v>
+        <v>683368</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,46 +4845,46 @@
         <v>1709</v>
       </c>
       <c r="D10" s="7">
-        <v>1884555</v>
+        <v>2023842</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>2535</v>
       </c>
       <c r="I10" s="7">
-        <v>1881028</v>
+        <v>1795657</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M10" s="7">
         <v>4244</v>
       </c>
       <c r="N10" s="7">
-        <v>3765584</v>
+        <v>3819499</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,7 +4896,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -4899,7 +4911,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -4914,7 +4926,7 @@
         <v>4913</v>
       </c>
       <c r="N11" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -4937,40 +4949,40 @@
         <v>7</v>
       </c>
       <c r="D12" s="7">
-        <v>7135</v>
+        <v>6886</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
       </c>
       <c r="I12" s="7">
-        <v>6424</v>
+        <v>5748</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>46</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M12" s="7">
         <v>17</v>
       </c>
       <c r="N12" s="7">
-        <v>13560</v>
+        <v>12634</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>43</v>
@@ -4988,7 +5000,7 @@
         <v>60</v>
       </c>
       <c r="D13" s="7">
-        <v>59773</v>
+        <v>58696</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>327</v>
@@ -5003,31 +5015,31 @@
         <v>82</v>
       </c>
       <c r="I13" s="7">
-        <v>54193</v>
+        <v>51178</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>142</v>
       </c>
       <c r="N13" s="7">
-        <v>113967</v>
+        <v>109874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,22 +5051,22 @@
         <v>614</v>
       </c>
       <c r="D14" s="7">
-        <v>606130</v>
+        <v>581041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>337</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7">
         <v>912</v>
       </c>
       <c r="I14" s="7">
-        <v>653268</v>
+        <v>603537</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>338</v>
@@ -5063,22 +5075,22 @@
         <v>339</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>340</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>1526</v>
       </c>
       <c r="N14" s="7">
-        <v>1259400</v>
+        <v>1184578</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,7 +5102,7 @@
         <v>681</v>
       </c>
       <c r="D15" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -5105,7 +5117,7 @@
         <v>1004</v>
       </c>
       <c r="I15" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -5120,7 +5132,7 @@
         <v>1685</v>
       </c>
       <c r="N15" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -5143,46 +5155,46 @@
         <v>22</v>
       </c>
       <c r="D16" s="7">
-        <v>23764</v>
+        <v>22724</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>343</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>18259</v>
+        <v>16593</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
       </c>
       <c r="N16" s="7">
-        <v>42023</v>
+        <v>39317</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>347</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>238</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,46 +5206,46 @@
         <v>511</v>
       </c>
       <c r="D17" s="7">
-        <v>460370</v>
+        <v>441503</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H17" s="7">
         <v>841</v>
       </c>
       <c r="I17" s="7">
-        <v>635359</v>
+        <v>684985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>348</v>
+        <v>122</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="M17" s="7">
         <v>1352</v>
       </c>
       <c r="N17" s="7">
-        <v>1095729</v>
+        <v>1126488</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,46 +5257,46 @@
         <v>2831</v>
       </c>
       <c r="D18" s="7">
-        <v>2892562</v>
+        <v>2987661</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H18" s="7">
         <v>4477</v>
       </c>
       <c r="I18" s="7">
-        <v>3145742</v>
+        <v>2952216</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M18" s="7">
         <v>7308</v>
       </c>
       <c r="N18" s="7">
-        <v>6038303</v>
+        <v>5939877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,7 +5308,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -5311,7 +5323,7 @@
         <v>5352</v>
       </c>
       <c r="I19" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -5326,7 +5338,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
